--- a/experiments/evaluation/llm-based/albert-base-v2_15/rem-100_remove/rem4/incorrect_predictions.xlsx
+++ b/experiments/evaluation/llm-based/albert-base-v2_15/rem-100_remove/rem4/incorrect_predictions.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -512,7 +512,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -537,7 +537,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
